--- a/output/calibration/niğde.xlsx
+++ b/output/calibration/niğde.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurg\Documents\GitHub\oceanview\output\calibration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6A0619-2905-43EB-B77C-8D29F172AAE4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -112,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +170,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,33 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -633,28 +564,40 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>0.29729280000000002</v>
+        <v>0.2972928</v>
       </c>
       <c r="F2">
-        <v>0.91456301303718091</v>
+        <v>0.9145630130371809</v>
       </c>
       <c r="G2">
-        <v>275.32751999999999</v>
+        <v>275.32752</v>
       </c>
       <c r="H2">
-        <v>8.5640000000000001</v>
+        <v>8.564</v>
+      </c>
+      <c r="I2">
+        <v>1090.18422390144</v>
       </c>
       <c r="J2">
         <v>1090.18422390144</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>369.3719160541673</v>
+      </c>
       <c r="N2">
-        <v>369.37191605416729</v>
+        <v>369.3719160541673</v>
+      </c>
+      <c r="O2">
+        <v>318.3746885686143</v>
       </c>
       <c r="P2">
-        <v>318.37468856861432</v>
+        <v>318.3746885686143</v>
       </c>
       <c r="Q2">
         <v>235.1373277621388</v>
@@ -680,17 +623,23 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
-        <v>333.94956635733519</v>
+        <v>333.9495663573352</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
       <c r="AC2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,7 +653,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0.40877760000000002</v>
+        <v>0.4087776</v>
       </c>
       <c r="F3">
         <v>0.538638338966684</v>
@@ -713,22 +662,34 @@
         <v>126.80772</v>
       </c>
       <c r="H3">
-        <v>9.2119999999999997</v>
+        <v>9.212</v>
+      </c>
+      <c r="I3">
+        <v>966.6012906578051</v>
       </c>
       <c r="J3">
-        <v>966.60129065780507</v>
+        <v>966.6012906578051</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>408.2252669658548</v>
+      </c>
       <c r="N3">
-        <v>408.22526696585481</v>
+        <v>408.2252669658548</v>
+      </c>
+      <c r="O3">
+        <v>310.2900838639626</v>
       </c>
       <c r="P3">
-        <v>310.29008386396259</v>
+        <v>310.2900838639626</v>
       </c>
       <c r="Q3">
-        <v>181.35636474773631</v>
+        <v>181.3563647477363</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -751,17 +712,23 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
       <c r="Z3">
-        <v>304.09692148699128</v>
+        <v>304.0969214869913</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
       <c r="AC3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,31 +742,43 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0.27871200000000002</v>
+        <v>0.278712</v>
       </c>
       <c r="F4">
-        <v>0.57791405118300487</v>
+        <v>0.5779140511830049</v>
       </c>
       <c r="G4">
-        <v>99.332999999999998</v>
+        <v>99.333</v>
       </c>
       <c r="H4">
-        <v>5.6480000000000006</v>
+        <v>5.648000000000001</v>
+      </c>
+      <c r="I4">
+        <v>537.6035585542534</v>
       </c>
       <c r="J4">
-        <v>537.60355855425337</v>
+        <v>537.6035585542534</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4">
+        <v>278.2773415622406</v>
+      </c>
       <c r="N4">
-        <v>278.27734156224062</v>
+        <v>278.2773415622406</v>
+      </c>
+      <c r="O4">
+        <v>465.6343001913896</v>
       </c>
       <c r="P4">
-        <v>465.63430019138963</v>
+        <v>465.6343001913896</v>
       </c>
       <c r="Q4">
-        <v>221.76192189437961</v>
+        <v>221.7619218943796</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -820,6 +799,9 @@
         <v>0</v>
       </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
@@ -828,11 +810,14 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
       <c r="AC4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,28 +831,40 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>0.16722719999999999</v>
+        <v>0.1672272</v>
       </c>
       <c r="F5">
-        <v>0.52180589087397455</v>
+        <v>0.5218058908739746</v>
       </c>
       <c r="G5">
-        <v>311.20907999999997</v>
+        <v>311.20908</v>
       </c>
       <c r="H5">
         <v>10.292</v>
       </c>
+      <c r="I5">
+        <v>595.5751916264292</v>
+      </c>
       <c r="J5">
-        <v>595.57519162642916</v>
+        <v>595.5751916264292</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5">
+        <v>299.2632494572205</v>
+      </c>
       <c r="N5">
-        <v>299.26324945722052</v>
+        <v>299.2632494572205</v>
+      </c>
+      <c r="O5">
+        <v>377.9808456056994</v>
       </c>
       <c r="P5">
-        <v>377.98084560569941</v>
+        <v>377.9808456056994</v>
       </c>
       <c r="Q5">
         <v>175.8155188282264</v>
@@ -893,17 +890,23 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
       <c r="Z5">
-        <v>199.00424017997119</v>
+        <v>199.0042401799712</v>
       </c>
       <c r="AA5">
         <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>102.7697195331923</v>
       </c>
       <c r="AC5">
         <v>102.7697195331923</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,25 +923,37 @@
         <v>0.185808</v>
       </c>
       <c r="F6">
-        <v>0.29737324963785722</v>
+        <v>0.2973732496378572</v>
       </c>
       <c r="G6">
         <v>126.80772</v>
       </c>
       <c r="H6">
-        <v>2.7320000000000002</v>
+        <v>2.732</v>
+      </c>
+      <c r="I6">
+        <v>614.5613261964543</v>
       </c>
       <c r="J6">
-        <v>614.56132619645427</v>
+        <v>614.5613261964543</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>314.1522143649937</v>
+      </c>
       <c r="N6">
-        <v>314.15221436499371</v>
+        <v>314.1522143649937</v>
+      </c>
+      <c r="O6">
+        <v>298.8204554120387</v>
       </c>
       <c r="P6">
-        <v>298.82045541203871</v>
+        <v>298.8204554120387</v>
       </c>
       <c r="Q6">
         <v>122.8678976831641</v>
@@ -964,17 +979,23 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
       <c r="Z6">
-        <v>214.91703300241119</v>
+        <v>214.9170330024112</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
       <c r="AC6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,28 +1009,40 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>0.14245279999999999</v>
+        <v>0.1424528</v>
       </c>
       <c r="F7">
-        <v>0.33103814582327418</v>
+        <v>0.3310381458232742</v>
       </c>
       <c r="G7">
-        <v>86.054279999999991</v>
+        <v>86.05427999999999</v>
       </c>
       <c r="H7">
         <v>2.407999999999999</v>
       </c>
+      <c r="I7">
+        <v>509.6567874248952</v>
+      </c>
       <c r="J7">
-        <v>509.65678742489519</v>
+        <v>509.6567874248952</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>266.5725804653611</v>
+      </c>
       <c r="N7">
-        <v>266.57258046536111</v>
+        <v>266.5725804653611</v>
+      </c>
+      <c r="O7">
+        <v>352.1188524964141</v>
       </c>
       <c r="P7">
-        <v>352.11885249641409</v>
+        <v>352.1188524964141</v>
       </c>
       <c r="Q7">
         <v>166.808680167689</v>
@@ -1035,17 +1068,23 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
       <c r="Z7">
-        <v>193.94416726307369</v>
+        <v>193.9441672630737</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
       <c r="AC7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,31 +1098,43 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>0.16722719999999999</v>
+        <v>0.1672272</v>
       </c>
       <c r="F8">
-        <v>0.16832448092708899</v>
+        <v>0.168324480927089</v>
       </c>
       <c r="G8">
-        <v>92.972880000000004</v>
+        <v>92.97288</v>
       </c>
       <c r="H8">
         <v>2.407999999999999</v>
       </c>
+      <c r="I8">
+        <v>589.2147359782124</v>
+      </c>
       <c r="J8">
-        <v>589.21473597821239</v>
+        <v>589.2147359782124</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>387.0613377899274</v>
+      </c>
       <c r="N8">
-        <v>387.06133778992739</v>
+        <v>387.0613377899274</v>
+      </c>
+      <c r="O8">
+        <v>538.0447558118196</v>
       </c>
       <c r="P8">
-        <v>538.04475581181964</v>
+        <v>538.0447558118196</v>
       </c>
       <c r="Q8">
-        <v>196.90516950258049</v>
+        <v>196.9051695025805</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1104,6 +1155,9 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
@@ -1112,11 +1166,14 @@
       <c r="AA8">
         <v>0</v>
       </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
       <c r="AC8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1133,25 +1190,37 @@
         <v>0.1362592</v>
       </c>
       <c r="F9">
-        <v>0.80234669241912016</v>
+        <v>0.8023466924191202</v>
       </c>
       <c r="G9">
         <v>300.46848</v>
       </c>
       <c r="H9">
-        <v>8.5640000000000001</v>
+        <v>8.564</v>
+      </c>
+      <c r="I9">
+        <v>645.8007597012693</v>
       </c>
       <c r="J9">
-        <v>645.80075970126927</v>
+        <v>645.8007597012693</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
+      </c>
+      <c r="M9">
+        <v>319.7179383165643</v>
       </c>
       <c r="N9">
         <v>319.7179383165643</v>
       </c>
+      <c r="O9">
+        <v>402.8665065916848</v>
+      </c>
       <c r="P9">
-        <v>402.86650659168481</v>
+        <v>402.8665065916848</v>
       </c>
       <c r="Q9">
         <v>232.1928101654789</v>
@@ -1177,17 +1246,23 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
       <c r="Z9">
-        <v>219.43863966274961</v>
+        <v>219.4386396627496</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
       <c r="AC9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,31 +1276,43 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>9.9097599999999994E-2</v>
+        <v>0.09909759999999999</v>
       </c>
       <c r="F10">
-        <v>0.75184934814099369</v>
+        <v>0.7518493481409937</v>
       </c>
       <c r="G10">
-        <v>175.90092000000001</v>
+        <v>175.90092</v>
       </c>
       <c r="H10">
-        <v>4.2439999999999998</v>
+        <v>4.244</v>
+      </c>
+      <c r="I10">
+        <v>764.5251642574432</v>
       </c>
       <c r="J10">
-        <v>764.52516425744318</v>
+        <v>764.5251642574432</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>300.5775147366932</v>
+      </c>
       <c r="N10">
-        <v>300.57751473669322</v>
+        <v>300.5775147366932</v>
+      </c>
+      <c r="O10">
+        <v>328.2976116242584</v>
       </c>
       <c r="P10">
-        <v>328.29761162425842</v>
+        <v>328.2976116242584</v>
       </c>
       <c r="Q10">
-        <v>172.71242613111431</v>
+        <v>172.7124261311143</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1248,17 +1335,23 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10">
-        <v>254.10573481440551</v>
+        <v>254.1057348144055</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
       <c r="AC10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,10 +1365,10 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>9.9097599999999994E-2</v>
+        <v>0.09909759999999999</v>
       </c>
       <c r="F11">
-        <v>0.68867356538099833</v>
+        <v>0.6886735653809983</v>
       </c>
       <c r="G11">
         <v>126.80772</v>
@@ -1283,17 +1376,29 @@
       <c r="H11">
         <v>3.38</v>
       </c>
+      <c r="I11">
+        <v>723.4673527387783</v>
+      </c>
       <c r="J11">
-        <v>723.46735273877835</v>
+        <v>723.4673527387783</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>332.9951905313619</v>
+      </c>
       <c r="N11">
-        <v>332.99519053136191</v>
+        <v>332.9951905313619</v>
+      </c>
+      <c r="O11">
+        <v>415.8246241790993</v>
       </c>
       <c r="P11">
-        <v>415.82462417909932</v>
+        <v>415.8246241790993</v>
       </c>
       <c r="Q11">
         <v>175.4617744407503</v>
@@ -1319,17 +1424,23 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
       <c r="Z11">
         <v>249.4593241156488</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
+      <c r="AB11">
+        <v>115.124839827525</v>
+      </c>
       <c r="AC11">
-        <v>115.12483982752499</v>
+        <v>115.124839827525</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,31 +1454,43 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>8.0516800000000013E-2</v>
+        <v>0.08051680000000001</v>
       </c>
       <c r="F12">
         <v>1.087666980244592</v>
       </c>
       <c r="G12">
-        <v>242.22587999999999</v>
+        <v>242.22588</v>
       </c>
       <c r="H12">
-        <v>7.4839999999999982</v>
+        <v>7.483999999999998</v>
+      </c>
+      <c r="I12">
+        <v>980.9831331039001</v>
       </c>
       <c r="J12">
-        <v>980.98313310390006</v>
+        <v>980.9831331039001</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>325.2572425569631</v>
+      </c>
       <c r="N12">
-        <v>325.25724255696309</v>
+        <v>325.2572425569631</v>
+      </c>
+      <c r="O12">
+        <v>382.5648846317876</v>
       </c>
       <c r="P12">
-        <v>382.56488463178761</v>
+        <v>382.5648846317876</v>
       </c>
       <c r="Q12">
-        <v>205.33871762925429</v>
+        <v>205.3387176292543</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1390,17 +1513,23 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
-        <v>304.34220907335629</v>
+        <v>304.3422090733563</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
       <c r="AC12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,31 +1543,43 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>9.2904E-2</v>
+        <v>0.092904</v>
       </c>
       <c r="F13">
-        <v>0.65041392285983157</v>
+        <v>0.6504139228598316</v>
       </c>
       <c r="G13">
-        <v>208.05251999999999</v>
+        <v>208.05252</v>
       </c>
       <c r="H13">
-        <v>2.1920000000000002</v>
+        <v>2.192</v>
+      </c>
+      <c r="I13">
+        <v>983.6590443366889</v>
       </c>
       <c r="J13">
-        <v>983.65904433668891</v>
+        <v>983.6590443366889</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>348.6633725567083</v>
+      </c>
       <c r="N13">
-        <v>348.66337255670828</v>
+        <v>348.6633725567083</v>
+      </c>
+      <c r="O13">
+        <v>310.2502251381397</v>
       </c>
       <c r="P13">
-        <v>310.25022513813968</v>
+        <v>310.2502251381397</v>
       </c>
       <c r="Q13">
-        <v>195.28303855617929</v>
+        <v>195.2830385561793</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1461,17 +1602,23 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
-        <v>302.16529415646329</v>
+        <v>302.1652941564633</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
       <c r="AC13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1488,28 +1635,40 @@
         <v>0.1052912</v>
       </c>
       <c r="F14">
-        <v>1.0439416745061141</v>
+        <v>1.043941674506114</v>
       </c>
       <c r="G14">
-        <v>205.29599999999999</v>
+        <v>205.296</v>
       </c>
       <c r="H14">
-        <v>1.6519999999999999</v>
+        <v>1.652</v>
+      </c>
+      <c r="I14">
+        <v>802.3169100839972</v>
       </c>
       <c r="J14">
-        <v>802.31691008399719</v>
+        <v>802.3169100839972</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>299.1981354047251</v>
+      </c>
       <c r="N14">
-        <v>299.19813540472512</v>
+        <v>299.1981354047251</v>
+      </c>
+      <c r="O14">
+        <v>243.5710898595763</v>
       </c>
       <c r="P14">
-        <v>243.57108985957629</v>
+        <v>243.5710898595763</v>
       </c>
       <c r="Q14">
-        <v>132.69888486320909</v>
+        <v>132.6988848632091</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1532,17 +1691,23 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
       <c r="Z14">
-        <v>256.76330399289202</v>
+        <v>256.763303992892</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
       <c r="AC14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,31 +1721,43 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>9.2904E-2</v>
+        <v>0.092904</v>
       </c>
       <c r="F15">
-        <v>0.66681091251175928</v>
+        <v>0.6668109125117593</v>
       </c>
       <c r="G15">
-        <v>256.06151999999997</v>
+        <v>256.06152</v>
       </c>
       <c r="H15">
         <v>1.76</v>
       </c>
+      <c r="I15">
+        <v>965.0421926516568</v>
+      </c>
       <c r="J15">
-        <v>965.04219265165682</v>
+        <v>965.0421926516568</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
+      </c>
+      <c r="M15">
+        <v>342.6720056803893</v>
       </c>
       <c r="N15">
         <v>342.6720056803893</v>
       </c>
+      <c r="O15">
+        <v>321.5885474104076</v>
+      </c>
       <c r="P15">
-        <v>321.58854741040761</v>
+        <v>321.5885474104076</v>
       </c>
       <c r="Q15">
-        <v>193.89213006559069</v>
+        <v>193.8921300655907</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1603,17 +1780,23 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
       <c r="Z15">
-        <v>316.26583081192251</v>
+        <v>316.2658308119225</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
       <c r="AC15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1630,28 +1813,40 @@
         <v>0.1114848</v>
       </c>
       <c r="F16">
-        <v>0.60668861712135547</v>
+        <v>0.6066886171213555</v>
       </c>
       <c r="G16">
         <v>300.46848</v>
       </c>
       <c r="H16">
-        <v>7.3759999999999986</v>
+        <v>7.375999999999999</v>
+      </c>
+      <c r="I16">
+        <v>931.2859219889606</v>
       </c>
       <c r="J16">
-        <v>931.28592198896058</v>
+        <v>931.2859219889606</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>371.6327689513297</v>
+      </c>
       <c r="N16">
-        <v>371.63276895132969</v>
+        <v>371.6327689513297</v>
+      </c>
+      <c r="O16">
+        <v>348.0261107699022</v>
       </c>
       <c r="P16">
-        <v>348.02611076990217</v>
+        <v>348.0261107699022</v>
       </c>
       <c r="Q16">
-        <v>179.00326976998431</v>
+        <v>179.0032697699843</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1674,17 +1869,23 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
       <c r="Z16">
-        <v>300.47750246126208</v>
+        <v>300.4775024612621</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
       <c r="AC16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1698,10 +1899,10 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>0.14864640000000001</v>
+        <v>0.1486464</v>
       </c>
       <c r="F17">
-        <v>0.48097836312323661</v>
+        <v>0.4809783631232366</v>
       </c>
       <c r="G17">
         <v>129.90588</v>
@@ -1709,20 +1910,32 @@
       <c r="H17">
         <v>2.948</v>
       </c>
+      <c r="I17">
+        <v>892.7397763611841</v>
+      </c>
       <c r="J17">
-        <v>892.73977636118411</v>
+        <v>892.7397763611841</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>439.3496060659431</v>
+      </c>
       <c r="N17">
-        <v>439.34960606594308</v>
+        <v>439.3496060659431</v>
+      </c>
+      <c r="O17">
+        <v>294.4991899154373</v>
       </c>
       <c r="P17">
-        <v>294.49918991543728</v>
+        <v>294.4991899154373</v>
       </c>
       <c r="Q17">
-        <v>97.768162685101203</v>
+        <v>97.7681626851012</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1745,17 +1958,23 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
       <c r="Z17">
-        <v>292.65347595806099</v>
+        <v>292.653475958061</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
       <c r="AC17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1772,28 +1991,40 @@
         <v>0.123872</v>
       </c>
       <c r="F18">
-        <v>0.47004703668861808</v>
+        <v>0.4700470366886181</v>
       </c>
       <c r="G18">
-        <v>94.375320000000002</v>
+        <v>94.37532</v>
       </c>
       <c r="H18">
-        <v>2.1920000000000002</v>
+        <v>2.192</v>
+      </c>
+      <c r="I18">
+        <v>1074.296149455571</v>
       </c>
       <c r="J18">
-        <v>1074.2961494555709</v>
+        <v>1074.296149455571</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>383.8115751988357</v>
+      </c>
       <c r="N18">
-        <v>383.81157519883573</v>
+        <v>383.8115751988357</v>
+      </c>
+      <c r="O18">
+        <v>368.5482670349408</v>
       </c>
       <c r="P18">
-        <v>368.54826703494081</v>
+        <v>368.5482670349408</v>
       </c>
       <c r="Q18">
-        <v>240.87634611869859</v>
+        <v>240.8763461186986</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1816,17 +2047,23 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="Z18">
-        <v>334.19407349501893</v>
+        <v>334.1940734950189</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
       <c r="AC18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1840,25 +2077,37 @@
         <v>28</v>
       </c>
       <c r="E19">
-        <v>8.0516800000000013E-2</v>
+        <v>0.08051680000000001</v>
       </c>
       <c r="F19">
-        <v>0.40445907808090298</v>
+        <v>0.404459078080903</v>
       </c>
       <c r="G19">
-        <v>81.304079999999999</v>
+        <v>81.30408</v>
       </c>
       <c r="H19">
         <v>1.76</v>
       </c>
+      <c r="I19">
+        <v>985.1652172439033</v>
+      </c>
       <c r="J19">
-        <v>985.16521724390327</v>
+        <v>985.1652172439033</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>426.9422113815298</v>
+      </c>
       <c r="N19">
-        <v>426.94221138152977</v>
+        <v>426.9422113815298</v>
+      </c>
+      <c r="O19">
+        <v>352.6099923372991</v>
       </c>
       <c r="P19">
         <v>352.6099923372991</v>
@@ -1887,17 +2136,23 @@
       <c r="X19">
         <v>0</v>
       </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
       <c r="Z19">
-        <v>311.94249358212522</v>
+        <v>311.9424935821252</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
       <c r="AC19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1911,28 +2166,40 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>6.1935999999999998E-2</v>
+        <v>0.061936</v>
       </c>
       <c r="F20">
-        <v>0.46458137347130879</v>
+        <v>0.4645813734713088</v>
       </c>
       <c r="G20">
-        <v>140.14727999999999</v>
+        <v>140.14728</v>
       </c>
       <c r="H20">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
+      </c>
+      <c r="I20">
+        <v>970.4015697987718</v>
       </c>
       <c r="J20">
-        <v>970.40156979877179</v>
+        <v>970.4015697987718</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>364.2414952932693</v>
+      </c>
       <c r="N20">
-        <v>364.24149529326928</v>
+        <v>364.2414952932693</v>
+      </c>
+      <c r="O20">
+        <v>202.8936067668483</v>
       </c>
       <c r="P20">
-        <v>202.89360676684831</v>
+        <v>202.8936067668483</v>
       </c>
       <c r="Q20">
         <v>121.3490396355601</v>
@@ -1958,17 +2225,23 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
       <c r="Z20">
-        <v>298.48374018578039</v>
+        <v>298.4837401857804</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
       <c r="AC20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1982,25 +2255,37 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.29729280000000002</v>
+        <v>0.2972928</v>
       </c>
       <c r="F21">
-        <v>1.9457761053621829</v>
+        <v>1.945776105362183</v>
       </c>
       <c r="G21">
         <v>397.93572</v>
       </c>
       <c r="H21">
-        <v>6.5119999999999996</v>
+        <v>6.512</v>
+      </c>
+      <c r="I21">
+        <v>953.0632640936834</v>
       </c>
       <c r="J21">
-        <v>953.06326409368342</v>
+        <v>953.0632640936834</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>385.6322966072728</v>
+      </c>
       <c r="N21">
-        <v>385.63229660727279</v>
+        <v>385.6322966072728</v>
+      </c>
+      <c r="O21">
+        <v>312.5965744271906</v>
       </c>
       <c r="P21">
         <v>312.5965744271906</v>
@@ -2029,17 +2314,23 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
       <c r="Z21">
-        <v>301.39086673120579</v>
+        <v>301.3908667312058</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
       <c r="AC21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2056,7 +2347,7 @@
         <v>0.25</v>
       </c>
       <c r="F22">
-        <v>1.1477892756349961</v>
+        <v>1.147789275634996</v>
       </c>
       <c r="G22">
         <v>235.42272</v>
@@ -2064,17 +2355,29 @@
       <c r="H22">
         <v>3.38</v>
       </c>
+      <c r="I22">
+        <v>1074.814699564659</v>
+      </c>
       <c r="J22">
-        <v>1074.8146995646589</v>
+        <v>1074.814699564659</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>425.1896242900657</v>
+      </c>
       <c r="N22">
-        <v>425.18962429006569</v>
+        <v>425.1896242900657</v>
+      </c>
+      <c r="O22">
+        <v>359.9489031613078</v>
       </c>
       <c r="P22">
-        <v>359.94890316130778</v>
+        <v>359.9489031613078</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2100,17 +2403,23 @@
       <c r="X22">
         <v>0</v>
       </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
       <c r="Z22">
-        <v>330.26670720549441</v>
+        <v>330.2667072054944</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
       <c r="AC22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2124,28 +2433,40 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>4.3355200000000003E-2</v>
+        <v>0.0433552</v>
       </c>
       <c r="F23">
         <v>0.6996048918156168</v>
       </c>
       <c r="G23">
-        <v>234.45707999999999</v>
+        <v>234.45708</v>
       </c>
       <c r="H23">
-        <v>2.6240000000000001</v>
+        <v>2.624</v>
+      </c>
+      <c r="I23">
+        <v>1019.485871362088</v>
       </c>
       <c r="J23">
         <v>1019.485871362088</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>356.0115165292715</v>
+      </c>
       <c r="N23">
-        <v>356.01151652927149</v>
+        <v>356.0115165292715</v>
+      </c>
+      <c r="O23">
+        <v>334.9052412300546</v>
       </c>
       <c r="P23">
-        <v>334.90524123005463</v>
+        <v>334.9052412300546</v>
       </c>
       <c r="Q23">
         <v>252.1024749921414</v>
@@ -2171,17 +2492,23 @@
       <c r="X23">
         <v>0</v>
       </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
       <c r="Z23">
-        <v>319.14050607203899</v>
+        <v>319.140506072039</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
       <c r="AC23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2195,31 +2522,43 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>4.9548800000000011E-2</v>
+        <v>0.04954880000000001</v>
       </c>
       <c r="F24">
-        <v>1.1259266227657589</v>
+        <v>1.125926622765759</v>
       </c>
       <c r="G24">
-        <v>189.05171999999999</v>
+        <v>189.05172</v>
       </c>
       <c r="H24">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
+      </c>
+      <c r="I24">
+        <v>1074.805157998254</v>
       </c>
       <c r="J24">
-        <v>1074.8051579982539</v>
+        <v>1074.805157998254</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>425.1555203684138</v>
+      </c>
       <c r="N24">
-        <v>425.15552036841382</v>
+        <v>425.1555203684138</v>
+      </c>
+      <c r="O24">
+        <v>416.0434941651837</v>
       </c>
       <c r="P24">
-        <v>416.04349416518369</v>
+        <v>416.0434941651837</v>
       </c>
       <c r="Q24">
-        <v>238.86896410559629</v>
+        <v>238.8689641055963</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2242,17 +2581,23 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
       <c r="Z24">
-        <v>331.90505197339809</v>
+        <v>331.9050519733981</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
       <c r="AC24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2266,31 +2611,43 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <v>4.9548800000000011E-2</v>
+        <v>0.04954880000000001</v>
       </c>
       <c r="F25">
-        <v>0.56296331138287947</v>
+        <v>0.5629633113828795</v>
       </c>
       <c r="G25">
-        <v>86.739119999999986</v>
+        <v>86.73911999999999</v>
       </c>
       <c r="H25">
-        <v>4.5679999999999996</v>
+        <v>4.568</v>
+      </c>
+      <c r="I25">
+        <v>1125.410137842557</v>
       </c>
       <c r="J25">
-        <v>1125.4101378425571</v>
+        <v>1125.410137842557</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>430.3436769099744</v>
+      </c>
       <c r="N25">
-        <v>430.34367690997442</v>
+        <v>430.3436769099744</v>
+      </c>
+      <c r="O25">
+        <v>496.0540033902849</v>
       </c>
       <c r="P25">
-        <v>496.05400339028489</v>
+        <v>496.0540033902849</v>
       </c>
       <c r="Q25">
-        <v>225.83022187662539</v>
+        <v>225.8302218766254</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2313,17 +2670,23 @@
       <c r="X25">
         <v>0</v>
       </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
       <c r="Z25">
-        <v>344.11144601233809</v>
+        <v>344.1114460123381</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
       <c r="AC25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2337,28 +2700,40 @@
         <v>28</v>
       </c>
       <c r="E26">
-        <v>0.14245279999999999</v>
+        <v>0.1424528</v>
       </c>
       <c r="F26">
         <v>0.78</v>
       </c>
       <c r="G26">
-        <v>188.16408000000001</v>
+        <v>188.16408</v>
       </c>
       <c r="H26">
-        <v>5.1079999999999997</v>
+        <v>5.108</v>
+      </c>
+      <c r="I26">
+        <v>1116.259220049194</v>
       </c>
       <c r="J26">
         <v>1116.259220049194</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>0</v>
       </c>
+      <c r="M26">
+        <v>378.8998526922816</v>
+      </c>
       <c r="N26">
-        <v>378.89985269228163</v>
+        <v>378.8998526922816</v>
+      </c>
+      <c r="O26">
+        <v>346.8017376318822</v>
       </c>
       <c r="P26">
-        <v>346.80173763188219</v>
+        <v>346.8017376318822</v>
       </c>
       <c r="Q26">
         <v>195.7237808022428</v>
@@ -2384,10 +2759,16 @@
       <c r="X26">
         <v>0</v>
       </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
       <c r="Z26">
-        <v>353.10319896885198</v>
+        <v>353.103198968852</v>
       </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
@@ -2396,6 +2777,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>